--- a/beaconKaari.xlsx
+++ b/beaconKaari.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/VR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="32F80BBFD076C7D747D40B748DCA1897F71C57C4" xr6:coauthVersionLast="19" xr6:coauthVersionMax="19" xr10:uidLastSave="{1756CE7E-BD25-8A4A-AA04-03A123628CD2}"/>
   <bookViews>
-    <workbookView xWindow="30560" yWindow="-3000" windowWidth="23600" windowHeight="19300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="1500" windowWidth="20300" windowHeight="15060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Junayksikkö" sheetId="4" r:id="rId1"/>
     <sheet name="Juna-asema" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="151">
   <si>
     <t>Esimerkkejä</t>
   </si>
@@ -838,35 +837,62 @@
     <t>Major: 1164 Minor: 4105</t>
   </si>
   <si>
-    <t>Alikulkutunneli (kulku laiturille 1)</t>
-  </si>
-  <si>
-    <t>Alikulkutunneli (kulku laiturille 2)</t>
-  </si>
-  <si>
-    <t>Alikulkutunneli (kulku laiturille 3)</t>
-  </si>
-  <si>
-    <t>Alikulkutunneli (kulku laiturille 4)</t>
-  </si>
-  <si>
-    <t>Ylikulku (kulku laiturille 1)</t>
-  </si>
-  <si>
-    <t>Ylikulku (kulku laiturille 2)</t>
-  </si>
-  <si>
-    <t>Ylikulku (kulku laiturille 3)</t>
-  </si>
-  <si>
-    <t>Ylikulku (kulku laiturille 4)</t>
+    <t>Alikulkutunneli</t>
+  </si>
+  <si>
+    <t>Ylikulku</t>
+  </si>
+  <si>
+    <t>Varaus 5 bittiä</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Major: xxxx xxxx xxxx xxxx Minor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxxx x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxx xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx xxxx</t>
+    </r>
+  </si>
+  <si>
+    <t>Laituritieto Majorissa ja Open Street Mapissa level tieto (-1)</t>
+  </si>
+  <si>
+    <t>Laituritieto Majorissa ja Open Street Mapissa level tieto (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -876,6 +902,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
@@ -912,7 +945,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Norm." xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -946,90 +979,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Taulukko17" displayName="Taulukko17" ref="A55:B119" totalsRowShown="0">
-  <autoFilter ref="A55:B119" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Taulukko17" displayName="Taulukko17" ref="A55:B119" totalsRowShown="0">
+  <autoFilter ref="A55:B119"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID/Arvo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kuvaus"/>
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Taulukko38" displayName="Taulukko38" ref="A12:B15" totalsRowShown="0">
-  <autoFilter ref="A12:B15" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Taulukko38" displayName="Taulukko38" ref="A12:B15" totalsRowShown="0">
+  <autoFilter ref="A12:B15"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ID/Arvo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Kuvaus"/>
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Taulukko49" displayName="Taulukko49" ref="A19:B51" totalsRowShown="0">
-  <autoFilter ref="A19:B51" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Taulukko49" displayName="Taulukko49" ref="A19:B51" totalsRowShown="0">
+  <autoFilter ref="A19:B51"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="ID/Arvo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Kuvaus"/>
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Taulukko10" displayName="Taulukko10" ref="A4:C8" totalsRowShown="0">
-  <autoFilter ref="A4:C8" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Taulukko10" displayName="Taulukko10" ref="A4:C8" totalsRowShown="0">
+  <autoFilter ref="A4:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Major + Minor 10-kantaiset"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Major + Minor binäärinä"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Selite"/>
+    <tableColumn id="1" name="Major + Minor 10-kantaiset"/>
+    <tableColumn id="2" name="Major + Minor binäärinä"/>
+    <tableColumn id="3" name="Selite"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Taulukko11" displayName="Taulukko11" ref="A4:C7" totalsRowShown="0">
-  <autoFilter ref="A4:C7" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Taulukko11" displayName="Taulukko11" ref="A4:C7" totalsRowShown="0">
+  <autoFilter ref="A4:C7"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Major + Minor 10-kantaiset"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Major + Minor binäärinä" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Selite"/>
+    <tableColumn id="1" name="Major + Minor 10-kantaiset"/>
+    <tableColumn id="2" name="Major + Minor binäärinä" dataDxfId="0"/>
+    <tableColumn id="3" name="Selite"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Taulukko12" displayName="Taulukko12" ref="A12:B21" totalsRowShown="0">
-  <autoFilter ref="A12:B21" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Taulukko12" displayName="Taulukko12" ref="A12:B21" totalsRowShown="0">
+  <autoFilter ref="A12:B21"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="ID/Arvo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Kuvaus"/>
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Taulukko14" displayName="Taulukko14" ref="A39:B101" totalsRowShown="0">
-  <autoFilter ref="A39:B101" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Taulukko14" displayName="Taulukko14" ref="A53:B115" totalsRowShown="0">
+  <autoFilter ref="A53:B115"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="ID/Arvo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Kuvaus"/>
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Taulukko1214" displayName="Taulukko1214" ref="A25:B35" totalsRowShown="0">
-  <autoFilter ref="A25:B35" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Taulukko1214" displayName="Taulukko1214" ref="A25:B35" totalsRowShown="0">
+  <autoFilter ref="A25:B35"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ID/Arvo"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Kuvaus"/>
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Taulukko12142" displayName="Taulukko12142" ref="A39:B49" totalsRowShown="0">
+  <autoFilter ref="A39:B49"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="ID/Arvo"/>
+    <tableColumn id="2" name="Kuvaus"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,18 +1356,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.87890625" customWidth="1"/>
-    <col min="2" max="2" width="54.80078125" customWidth="1"/>
-    <col min="3" max="3" width="50.40625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -2236,19 +2280,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A3:C101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A3:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" customWidth="1"/>
-    <col min="2" max="2" width="49.4375" customWidth="1"/>
-    <col min="3" max="3" width="58.125" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2456,12 +2500,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -2476,461 +2520,426 @@
       <c r="A40">
         <v>0</v>
       </c>
-      <c r="B40" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>3</v>
       </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>4</v>
       </c>
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>7</v>
       </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <v>8</v>
+      <c r="A48" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>9</v>
-      </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>10</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
+      <c r="A51" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>106</v>
+      <c r="A52" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>13</v>
+      <c r="A53" t="s">
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B56" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80">
+        <v>26</v>
+      </c>
+      <c r="B80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>27</v>
+      </c>
+      <c r="B81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>29</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>30</v>
+      </c>
+      <c r="B84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>32</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>34</v>
+      </c>
+      <c r="B88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
+        <v>35</v>
+      </c>
+      <c r="B89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>39</v>
+      </c>
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>40</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B94" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>41</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B95" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82">
+      <c r="C95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>42</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B96" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>43</v>
-      </c>
-      <c r="B83" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>44</v>
-      </c>
-      <c r="B84" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>45</v>
-      </c>
-      <c r="B85" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86">
-        <v>46</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C96" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87">
-        <v>47</v>
-      </c>
-      <c r="B87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88">
-        <v>48</v>
-      </c>
-      <c r="B88" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89">
-        <v>49</v>
-      </c>
-      <c r="B89" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90">
-        <v>50</v>
-      </c>
-      <c r="B90" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <v>51</v>
-      </c>
-      <c r="B91" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92">
-        <v>52</v>
-      </c>
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93">
-        <v>53</v>
-      </c>
-      <c r="B93" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94">
-        <v>54</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95">
-        <v>55</v>
-      </c>
-      <c r="B95" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96">
-        <v>56</v>
-      </c>
-      <c r="B96" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B97" t="s">
         <v>24</v>
@@ -2938,7 +2947,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
         <v>24</v>
@@ -2946,7 +2955,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
         <v>24</v>
@@ -2954,7 +2963,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
         <v>24</v>
@@ -2962,20 +2971,133 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101">
+        <v>47</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>48</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>49</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>50</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>51</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>52</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>54</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>55</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>56</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>57</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>58</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>61</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B115" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <tableParts count="4">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/beaconKaari.xlsx
+++ b/beaconKaari.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/Livi pilotti/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="47340" yWindow="-3280" windowWidth="23560" windowHeight="19240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Junayksikkö" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Juna-asema" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Pysäkki" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Junayksikkö" sheetId="1" r:id="rId1"/>
+    <sheet name="Juna-asema" sheetId="2" r:id="rId2"/>
+    <sheet name="Pysäkki" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,18 +50,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: 00</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">00 1000 0100 1101</t>
+      <t>Major: 00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>00 1000 0100 1101</t>
     </r>
     <r>
       <rPr>
@@ -63,14 +75,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0000 0100 1011</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0000 0100 1011</t>
     </r>
   </si>
   <si>
@@ -81,18 +93,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: 11</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">00 1000 0100 1101</t>
+      <t>Major: 11</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>00 1000 0100 1101</t>
     </r>
     <r>
       <rPr>
@@ -106,14 +118,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0000 0100 1011</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0000 0100 1011</t>
     </r>
   </si>
   <si>
@@ -121,18 +133,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: 01</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">01 1001 0000 1010</t>
+      <t>Major: 01</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>01 1001 0000 1010</t>
     </r>
     <r>
       <rPr>
@@ -146,14 +158,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0100 1101 0111</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0100 1101 0111</t>
     </r>
   </si>
   <si>
@@ -164,18 +176,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: xx</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xx xxxx xxxx xxxx</t>
+      <t>Major: xx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xx xxxx xxxx xxxx</t>
     </r>
     <r>
       <rPr>
@@ -218,24 +230,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xxxx xx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xx xxxx</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xxxx xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xx xxxx</t>
     </r>
   </si>
   <si>
@@ -306,18 +318,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: xxxx xxxx xxxx xxxx Minor: xxxx xxxx xx</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xx xxxx</t>
+      <t>Major: xxxx xxxx xxxx xxxx Minor: xxxx xxxx xx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xx xxxx</t>
     </r>
   </si>
   <si>
@@ -330,19 +342,19 @@
     <t>Yksikön 3. ovi</t>
   </si>
   <si>
-    <t>Yksikön 4. ovi </t>
-  </si>
-  <si>
-    <t>Yksikön 5. ovi </t>
-  </si>
-  <si>
-    <t>Yksikön 6. ovi </t>
-  </si>
-  <si>
-    <t>Yksikön 7. ovi </t>
-  </si>
-  <si>
-    <t>Yksikön 8. ovi </t>
+    <t>Yksikön 4. ovi</t>
+  </si>
+  <si>
+    <t>Yksikön 5. ovi</t>
+  </si>
+  <si>
+    <t>Yksikön 6. ovi</t>
+  </si>
+  <si>
+    <t>Yksikön 7. ovi</t>
+  </si>
+  <si>
+    <t>Yksikön 8. ovi</t>
   </si>
   <si>
     <t>Yksikön A-pään ohjaamo</t>
@@ -419,14 +431,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0000 0101 0011 0100</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0000 0101 0011 0100</t>
     </r>
     <r>
       <rPr>
@@ -440,14 +452,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0000 0100</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0000 0100</t>
     </r>
     <r>
       <rPr>
@@ -461,14 +473,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 1111</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1 1111</t>
     </r>
   </si>
   <si>
@@ -483,14 +495,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0000 0000 0000 0001</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0000 0000 0000 0001</t>
     </r>
     <r>
       <rPr>
@@ -504,14 +516,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11 0100</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>11 0100</t>
     </r>
     <r>
       <rPr>
@@ -525,14 +537,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1 0000</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1 0000</t>
     </r>
   </si>
   <si>
@@ -547,14 +559,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0000 0100 1000 1100</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0000 0100 1000 1100</t>
     </r>
     <r>
       <rPr>
@@ -568,14 +580,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0001 0000</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0001 0000</t>
     </r>
     <r>
       <rPr>
@@ -589,14 +601,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0 1001</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0 1001</t>
     </r>
   </si>
   <si>
@@ -611,14 +623,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xxxx xxxx xxxx xxxx</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xxxx xxxx xxxx xxxx</t>
     </r>
     <r>
       <rPr>
@@ -644,7 +656,7 @@
     <t>Lähdemäki</t>
   </si>
   <si>
-    <t>jne, UIC-koodien mukaisesti. Katso esim. </t>
+    <t>jne, UIC-koodien mukaisesti. Katso esim.</t>
   </si>
   <si>
     <t>Laituri 5 bittiä</t>
@@ -655,24 +667,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xxxx x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xxx xxxx xxxx</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xxxx x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xxx xxxx xxxx</t>
     </r>
   </si>
   <si>
@@ -707,28 +719,28 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: xxxx xxxx xxxx xxxx Minor: xxxx x</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xxx xx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xx xxxx</t>
+      <t>Major: xxxx xxxx xxxx xxxx Minor: xxxx x</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xxx xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xx xxxx</t>
     </r>
   </si>
   <si>
@@ -889,18 +901,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: xxxx xx</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xx xxxx xxxx</t>
+      <t>Major: xxxx xx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xx xxxx xxxx</t>
     </r>
     <r>
       <rPr>
@@ -948,18 +960,18 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Major: xxxx xxxx xxxx xxxx Minor: xx</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">xx xxxx xxxx xxxx</t>
+      <t>Major: xxxx xxxx xxxx xxxx Minor: xx</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>xx xxxx xxxx xxxx</t>
     </r>
   </si>
   <si>
@@ -972,12 +984,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="MMM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -986,22 +997,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
@@ -1024,7 +1020,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1032,95 +1028,314 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.71255060728745"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1131,50 +1346,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -1182,38 +1397,38 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1221,273 +1436,273 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>8</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>10</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>11</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>13</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>14</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>15</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36">
         <v>16</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37">
         <v>17</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38">
         <v>18</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>19</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>20</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>21</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>22</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>23</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>24</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>25</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>26</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>27</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48">
         <v>28</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>29</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50">
         <v>30</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51">
         <v>31</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>15</v>
       </c>
@@ -1495,556 +1710,545 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>0</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>3</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>4</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>5</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>8</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>9</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>11</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>12</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>13</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
         <v>14</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>15</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>16</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>17</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>18</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>19</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>20</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>21</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>22</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>23</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>24</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>25</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>26</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>27</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>28</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>29</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>30</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>31</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+      <c r="B87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>32</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>33</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+      <c r="B89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>34</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+      <c r="B90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>35</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+      <c r="B91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>36</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>37</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+      <c r="B93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>38</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>39</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+      <c r="B95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>40</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+      <c r="B96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>41</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98">
         <v>42</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99">
         <v>43</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101">
         <v>45</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102">
         <v>46</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>47</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104">
         <v>48</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105">
         <v>49</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106">
         <v>50</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107">
         <v>51</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>52</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>53</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110">
         <v>54</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111">
         <v>55</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112">
         <v>56</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113">
         <v>57</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114">
         <v>58</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>59</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="n">
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116">
         <v>60</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="n">
+      <c r="B116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117">
         <v>61</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="n">
+      <c r="B117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118">
         <v>62</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="n">
+      <c r="B118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119">
         <v>63</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C115"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C115"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B95" activeCellId="0" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="58.1457489878543"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.71255060728745"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2055,50 +2259,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2106,54 +2310,54 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>338</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>1332</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>1164</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2161,97 +2365,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26">
         <v>0</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>1</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>2</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>3</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>15</v>
       </c>
@@ -2259,70 +2463,70 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>3</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45">
         <v>5</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46">
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49">
         <v>31</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>15</v>
       </c>
@@ -2330,547 +2534,531 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56">
         <v>2</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57">
         <v>3</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58">
         <v>4</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59">
         <v>5</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60">
         <v>6</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62">
         <v>8</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63">
         <v>9</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64">
         <v>10</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65">
         <v>11</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66">
         <v>12</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67">
         <v>13</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68">
         <v>14</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69">
         <v>15</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70">
         <v>16</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71">
         <v>17</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72">
         <v>18</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73">
         <v>19</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="n">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74">
         <v>20</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="n">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75">
         <v>21</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="n">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76">
         <v>22</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="n">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77">
         <v>23</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="n">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78">
         <v>24</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="n">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79">
         <v>25</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="n">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80">
         <v>26</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81">
         <v>27</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82">
         <v>28</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83">
         <v>29</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="n">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84">
         <v>30</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="n">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85">
         <v>31</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="n">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86">
         <v>32</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="n">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87">
         <v>33</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="n">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88">
         <v>34</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89">
         <v>35</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
         <v>36</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
         <v>37</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="n">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
         <v>38</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="n">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
         <v>39</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="n">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
         <v>40</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="n">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
         <v>41</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" t="s">
         <v>147</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="n">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
         <v>42</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" t="s">
         <v>149</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="n">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97">
         <v>43</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="n">
+      <c r="B97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99">
         <v>45</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="n">
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100">
         <v>46</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="n">
+      <c r="B100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101">
         <v>47</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="n">
+      <c r="B101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102">
         <v>48</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="n">
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103">
         <v>49</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="n">
+      <c r="B103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104">
         <v>50</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="n">
+      <c r="B104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105">
         <v>51</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="n">
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106">
         <v>52</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="n">
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107">
         <v>53</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="n">
+      <c r="B107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108">
         <v>54</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="n">
+      <c r="B108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109">
         <v>55</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="n">
+      <c r="B109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110">
         <v>56</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="n">
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111">
         <v>57</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="n">
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112">
         <v>58</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="n">
+      <c r="B112" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113">
         <v>59</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="n">
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114">
         <v>60</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="n">
+      <c r="B114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115">
         <v>61</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4736842105263"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4453441295547"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.6113360323887"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.1417004048583"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -2881,39 +3069,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2921,97 +3109,97 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13">
         <v>91</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14">
         <v>92</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>49</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>235</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17">
         <v>245</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18">
         <v>257</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>753</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>837</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21">
         <v>853</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22">
         <v>564</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>15</v>
       </c>
@@ -3019,27 +3207,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28">
         <v>1024</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29">
         <v>6145</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normaali"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normaali"&amp;12Sivu &amp;P</oddFooter>
   </headerFooter>

--- a/beaconKaari.xlsx
+++ b/beaconKaari.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/Livi pilotti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miko.thusberg/OneDrive - Gofore Oy/Cases/Livi/Beaconit/Github/beacon-metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38180" yWindow="-6720" windowWidth="29600" windowHeight="21420" activeTab="1"/>
+    <workbookView xWindow="38160" yWindow="-6720" windowWidth="29600" windowHeight="21420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Junayksikkö" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="1306">
   <si>
     <t>Huom! Jos on "tyhjiä bittejä", niin niissä voi olla mitä vain arvoja. Niitä ei tarvitse huomioida.</t>
   </si>
@@ -4441,15 +4441,110 @@
       <t>xx xxxx</t>
     </r>
   </si>
+  <si>
+    <t>Laituri 1</t>
+  </si>
+  <si>
+    <t>Laituri 2</t>
+  </si>
+  <si>
+    <t>Laituri 4</t>
+  </si>
+  <si>
+    <t>Yleisimmät HEX arvot laiturialueella</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>000011</t>
+  </si>
+  <si>
+    <t>000101</t>
+  </si>
+  <si>
+    <t>000110</t>
+  </si>
+  <si>
+    <t>000111</t>
+  </si>
+  <si>
+    <t>001000</t>
+  </si>
+  <si>
+    <t>001001</t>
+  </si>
+  <si>
+    <t>001010</t>
+  </si>
+  <si>
+    <t>001011</t>
+  </si>
+  <si>
+    <t>0x800</t>
+  </si>
+  <si>
+    <t>0x801</t>
+  </si>
+  <si>
+    <t>0x802</t>
+  </si>
+  <si>
+    <t>0x803</t>
+  </si>
+  <si>
+    <t>0x804</t>
+  </si>
+  <si>
+    <t>0x805</t>
+  </si>
+  <si>
+    <t>0x806</t>
+  </si>
+  <si>
+    <t>0x807</t>
+  </si>
+  <si>
+    <t>0x808</t>
+  </si>
+  <si>
+    <t>0x809</t>
+  </si>
+  <si>
+    <t>0x80A</t>
+  </si>
+  <si>
+    <t>0x80B</t>
+  </si>
+  <si>
+    <t>100A</t>
+  </si>
+  <si>
+    <t>100B</t>
+  </si>
+  <si>
+    <t>200A</t>
+  </si>
+  <si>
+    <t>200B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
+    <numFmt numFmtId="166" formatCode="000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4518,6 +4613,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4539,7 +4642,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4653,12 +4756,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4702,8 +4889,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Avattu hyperlinkki" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlinkki" xfId="1" builtinId="8"/>
     <cellStyle name="Norm." xfId="0" builtinId="0"/>
   </cellStyles>
@@ -4833,8 +5042,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9067800" y="6311900"/>
-          <a:ext cx="3060700" cy="3086100"/>
+          <a:off x="9067800" y="6553200"/>
+          <a:ext cx="2616200" cy="3086100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6040,10 +6249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N126"/>
+  <dimension ref="A2:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -6052,17 +6261,20 @@
     <col min="2" max="2" width="57.5703125" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6073,7 +6285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>77</v>
       </c>
@@ -6084,7 +6296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -6095,7 +6307,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -6106,8 +6318,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>1261</v>
       </c>
@@ -6115,7 +6327,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>1273</v>
       </c>
@@ -6132,8 +6344,9 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>1256</v>
       </c>
@@ -6150,8 +6363,9 @@
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
@@ -6170,8 +6384,9 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>338</v>
       </c>
@@ -6190,8 +6405,9 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>1332</v>
       </c>
@@ -6210,8 +6426,9 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -6230,8 +6447,9 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>1164</v>
       </c>
@@ -6250,8 +6468,9 @@
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="12" t="s">
         <v>1253</v>
@@ -6268,8 +6487,9 @@
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
       <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
         <v>1254</v>
@@ -6288,8 +6508,9 @@
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
       <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
         <v>1251</v>
@@ -6306,8 +6527,9 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="19"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6322,8 +6544,9 @@
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>1262</v>
       </c>
@@ -6331,7 +6554,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
         <v>1269</v>
       </c>
@@ -6348,8 +6571,9 @@
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
         <v>1255</v>
       </c>
@@ -6366,8 +6590,9 @@
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
@@ -6388,8 +6613,9 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>0</v>
       </c>
@@ -6411,8 +6637,9 @@
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" ht="28" x14ac:dyDescent="0.15">
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" ht="28" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>1</v>
       </c>
@@ -6434,8 +6661,9 @@
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>2</v>
       </c>
@@ -6457,8 +6685,9 @@
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>3</v>
       </c>
@@ -6480,8 +6709,9 @@
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>4</v>
       </c>
@@ -6503,8 +6733,9 @@
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>5</v>
       </c>
@@ -6526,8 +6757,9 @@
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>6</v>
       </c>
@@ -6549,8 +6781,9 @@
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>7</v>
       </c>
@@ -6572,8 +6805,9 @@
       <c r="L31" s="12"/>
       <c r="M31" s="12"/>
       <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="21" t="s">
         <v>97</v>
       </c>
@@ -6592,8 +6826,9 @@
       <c r="L32" s="12"/>
       <c r="M32" s="12"/>
       <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>31</v>
       </c>
@@ -6612,8 +6847,9 @@
       <c r="L33" s="12"/>
       <c r="M33" s="12"/>
       <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -6632,8 +6868,9 @@
       <c r="L34" s="12"/>
       <c r="M34" s="12"/>
       <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>1270</v>
       </c>
@@ -6658,8 +6895,9 @@
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
       <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>1257</v>
       </c>
@@ -6676,8 +6914,9 @@
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>15</v>
       </c>
@@ -6702,8 +6941,9 @@
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>0</v>
       </c>
@@ -6723,8 +6963,9 @@
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
       <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>1</v>
       </c>
@@ -6741,8 +6982,9 @@
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
       <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>2</v>
       </c>
@@ -6759,8 +7001,9 @@
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
       <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>3</v>
       </c>
@@ -6768,17 +7011,20 @@
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
+      <c r="F41" s="39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="33"/>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
       <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>4</v>
       </c>
@@ -6786,17 +7032,18 @@
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="12"/>
       <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>5</v>
       </c>
@@ -6804,17 +7051,33 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
+      <c r="F43" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J43" s="45" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K43" s="41">
+        <v>1</v>
+      </c>
+      <c r="L43" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M43" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="N43" s="43" t="str">
+        <f>K43&amp;L43&amp;M43</f>
+        <v>100000000000</v>
+      </c>
+      <c r="O43" s="44"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="15">
         <v>6</v>
       </c>
@@ -6822,17 +7085,33 @@
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="F44" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J44" s="45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K44" s="41">
+        <v>1</v>
+      </c>
+      <c r="L44" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M44" s="42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N44" s="43" t="str">
+        <f t="shared" ref="N44:N78" si="1">K44&amp;L44&amp;M44</f>
+        <v>100000000001</v>
+      </c>
+      <c r="O44" s="44"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="15">
         <v>7</v>
       </c>
@@ -6840,17 +7119,33 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="F45" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J45" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K45" s="41">
+        <v>1</v>
+      </c>
+      <c r="L45" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M45" s="42" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N45" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000000010</v>
+      </c>
+      <c r="O45" s="44"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
         <v>97</v>
       </c>
@@ -6860,17 +7155,33 @@
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="F46" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J46" s="45" t="s">
+        <v>1293</v>
+      </c>
+      <c r="K46" s="41">
+        <v>1</v>
+      </c>
+      <c r="L46" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N46" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000000011</v>
+      </c>
+      <c r="O46" s="44"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="15">
         <v>31</v>
       </c>
@@ -6878,33 +7189,65 @@
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="F47" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J47" s="45" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K47" s="41">
+        <v>1</v>
+      </c>
+      <c r="L47" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M47" s="42" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N47" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000000100</v>
+      </c>
+      <c r="O47" s="44"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="15"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="F48" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J48" s="45" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K48" s="41">
+        <v>1</v>
+      </c>
+      <c r="L48" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M48" s="42" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N48" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000000101</v>
+      </c>
+      <c r="O48" s="44"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="29" t="s">
         <v>1271</v>
       </c>
@@ -6912,17 +7255,33 @@
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="F49" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J49" s="45" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K49" s="41">
+        <v>1</v>
+      </c>
+      <c r="L49" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M49" s="42" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N49" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000000110</v>
+      </c>
+      <c r="O49" s="44"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>1274</v>
       </c>
@@ -6930,17 +7289,33 @@
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="F50" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J50" s="45" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K50" s="41">
+        <v>1</v>
+      </c>
+      <c r="L50" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M50" s="42" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N50" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000000111</v>
+      </c>
+      <c r="O50" s="44"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>15</v>
       </c>
@@ -6952,17 +7327,33 @@
       </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J51" s="45" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K51" s="41">
+        <v>1</v>
+      </c>
+      <c r="L51" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M51" s="42" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N51" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000001000</v>
+      </c>
+      <c r="O51" s="44"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="15">
         <v>0</v>
       </c>
@@ -6975,17 +7366,33 @@
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="F52" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J52" s="45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K52" s="41">
+        <v>1</v>
+      </c>
+      <c r="L52" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M52" s="42" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N52" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000001001</v>
+      </c>
+      <c r="O52" s="44"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="15">
         <v>1</v>
       </c>
@@ -6993,22 +7400,38 @@
         <v>100</v>
       </c>
       <c r="C53" s="12" t="str">
-        <f t="shared" ref="C53:C113" si="1">DEC2BIN(A53,6)</f>
+        <f t="shared" ref="C53:C113" si="2">DEC2BIN(A53,6)</f>
         <v>000001</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="F53" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J53" s="45" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K53" s="41">
+        <v>1</v>
+      </c>
+      <c r="L53" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M53" s="42" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N53" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000001010</v>
+      </c>
+      <c r="O53" s="44"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="15">
         <v>2</v>
       </c>
@@ -7016,22 +7439,38 @@
         <v>101</v>
       </c>
       <c r="C54" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000010</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="34" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J54" s="45" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K54" s="41">
+        <v>1</v>
+      </c>
+      <c r="L54" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M54" s="42" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N54" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>100000001011</v>
+      </c>
+      <c r="O54" s="44"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="15">
         <v>3</v>
       </c>
@@ -7039,22 +7478,38 @@
         <v>102</v>
       </c>
       <c r="C55" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000011</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="13"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J55" s="45">
+        <v>1000</v>
+      </c>
+      <c r="K55" s="41">
+        <v>10</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M55" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="N55" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="O55" s="44"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="15">
         <v>4</v>
       </c>
@@ -7062,22 +7517,38 @@
         <v>103</v>
       </c>
       <c r="C56" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000100</v>
       </c>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="F56" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="13"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J56" s="45">
+        <v>1001</v>
+      </c>
+      <c r="K56" s="41">
+        <v>10</v>
+      </c>
+      <c r="L56" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M56" s="42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N56" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000001</v>
+      </c>
+      <c r="O56" s="44"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="15">
         <v>5</v>
       </c>
@@ -7085,22 +7556,38 @@
         <v>104</v>
       </c>
       <c r="C57" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000101</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="13"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J57" s="45">
+        <v>1002</v>
+      </c>
+      <c r="K57" s="41">
+        <v>10</v>
+      </c>
+      <c r="L57" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M57" s="42" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N57" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000010</v>
+      </c>
+      <c r="O57" s="44"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="15">
         <v>6</v>
       </c>
@@ -7108,22 +7595,38 @@
         <v>105</v>
       </c>
       <c r="C58" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000110</v>
       </c>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="F58" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="13"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J58" s="45">
+        <v>1003</v>
+      </c>
+      <c r="K58" s="41">
+        <v>10</v>
+      </c>
+      <c r="L58" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M58" s="42" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N58" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000011</v>
+      </c>
+      <c r="O58" s="44"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="15">
         <v>7</v>
       </c>
@@ -7131,22 +7634,38 @@
         <v>106</v>
       </c>
       <c r="C59" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>000111</v>
       </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="13"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J59" s="45">
+        <v>1004</v>
+      </c>
+      <c r="K59" s="41">
+        <v>10</v>
+      </c>
+      <c r="L59" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M59" s="42" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N59" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000100</v>
+      </c>
+      <c r="O59" s="44"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="15">
         <v>8</v>
       </c>
@@ -7154,22 +7673,38 @@
         <v>107</v>
       </c>
       <c r="C60" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001000</v>
       </c>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="F60" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="13"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J60" s="45">
+        <v>1005</v>
+      </c>
+      <c r="K60" s="41">
+        <v>10</v>
+      </c>
+      <c r="L60" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M60" s="42" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N60" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000101</v>
+      </c>
+      <c r="O60" s="44"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="15">
         <v>9</v>
       </c>
@@ -7177,22 +7712,38 @@
         <v>108</v>
       </c>
       <c r="C61" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001001</v>
       </c>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="F61" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="13"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J61" s="45">
+        <v>1006</v>
+      </c>
+      <c r="K61" s="41">
+        <v>10</v>
+      </c>
+      <c r="L61" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M61" s="42" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N61" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000110</v>
+      </c>
+      <c r="O61" s="44"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="15">
         <v>10</v>
       </c>
@@ -7200,22 +7751,38 @@
         <v>109</v>
       </c>
       <c r="C62" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001010</v>
       </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="F62" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="13"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J62" s="45">
+        <v>1007</v>
+      </c>
+      <c r="K62" s="41">
+        <v>10</v>
+      </c>
+      <c r="L62" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M62" s="42" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N62" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000000111</v>
+      </c>
+      <c r="O62" s="44"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="15">
         <v>11</v>
       </c>
@@ -7223,22 +7790,38 @@
         <v>110</v>
       </c>
       <c r="C63" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001011</v>
       </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="F63" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="13"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J63" s="45">
+        <v>1008</v>
+      </c>
+      <c r="K63" s="41">
+        <v>10</v>
+      </c>
+      <c r="L63" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M63" s="42" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N63" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000001000</v>
+      </c>
+      <c r="O63" s="44"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="15">
         <v>12</v>
       </c>
@@ -7246,22 +7829,38 @@
         <v>111</v>
       </c>
       <c r="C64" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001100</v>
       </c>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
+      <c r="F64" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="13"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J64" s="45">
+        <v>1009</v>
+      </c>
+      <c r="K64" s="41">
+        <v>10</v>
+      </c>
+      <c r="L64" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M64" s="42" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N64" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000001001</v>
+      </c>
+      <c r="O64" s="44"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="15">
         <v>13</v>
       </c>
@@ -7269,22 +7868,38 @@
         <v>112</v>
       </c>
       <c r="C65" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001101</v>
       </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
+      <c r="F65" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="13"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J65" s="45" t="s">
+        <v>1302</v>
+      </c>
+      <c r="K65" s="41">
+        <v>10</v>
+      </c>
+      <c r="L65" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M65" s="42" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N65" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000001010</v>
+      </c>
+      <c r="O65" s="44"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="15">
         <v>14</v>
       </c>
@@ -7292,22 +7907,38 @@
         <v>113</v>
       </c>
       <c r="C66" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001110</v>
       </c>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
+      <c r="F66" s="34" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>110</v>
+      </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="13"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J66" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K66" s="41">
+        <v>10</v>
+      </c>
+      <c r="L66" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M66" s="42" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N66" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>1000000001011</v>
+      </c>
+      <c r="O66" s="44"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="15">
         <v>15</v>
       </c>
@@ -7315,22 +7946,38 @@
         <v>114</v>
       </c>
       <c r="C67" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>001111</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
+      <c r="F67" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>99</v>
+      </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="13"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J67" s="45">
+        <v>2000</v>
+      </c>
+      <c r="K67" s="41">
+        <v>100</v>
+      </c>
+      <c r="L67" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M67" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="N67" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000000</v>
+      </c>
+      <c r="O67" s="44"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="15">
         <v>16</v>
       </c>
@@ -7338,22 +7985,38 @@
         <v>115</v>
       </c>
       <c r="C68" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010000</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
+      <c r="F68" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>100</v>
+      </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="13"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J68" s="45">
+        <v>2001</v>
+      </c>
+      <c r="K68" s="41">
+        <v>100</v>
+      </c>
+      <c r="L68" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M68" s="42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="N68" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000001</v>
+      </c>
+      <c r="O68" s="44"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="15">
         <v>17</v>
       </c>
@@ -7361,22 +8024,38 @@
         <v>116</v>
       </c>
       <c r="C69" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010001</v>
       </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
+      <c r="F69" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="13"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J69" s="45">
+        <v>2002</v>
+      </c>
+      <c r="K69" s="41">
+        <v>100</v>
+      </c>
+      <c r="L69" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M69" s="42" t="s">
+        <v>1281</v>
+      </c>
+      <c r="N69" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000010</v>
+      </c>
+      <c r="O69" s="44"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="15">
         <v>18</v>
       </c>
@@ -7384,22 +8063,38 @@
         <v>117</v>
       </c>
       <c r="C70" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010010</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
+      <c r="F70" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>102</v>
+      </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="13"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J70" s="45">
+        <v>2003</v>
+      </c>
+      <c r="K70" s="41">
+        <v>100</v>
+      </c>
+      <c r="L70" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M70" s="42" t="s">
+        <v>1282</v>
+      </c>
+      <c r="N70" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000011</v>
+      </c>
+      <c r="O70" s="44"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="15">
         <v>19</v>
       </c>
@@ -7407,22 +8102,38 @@
         <v>118</v>
       </c>
       <c r="C71" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010011</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
+      <c r="F71" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="13"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J71" s="45">
+        <v>2004</v>
+      </c>
+      <c r="K71" s="41">
+        <v>100</v>
+      </c>
+      <c r="L71" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M71" s="42" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N71" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000100</v>
+      </c>
+      <c r="O71" s="44"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="15">
         <v>20</v>
       </c>
@@ -7430,22 +8141,38 @@
         <v>119</v>
       </c>
       <c r="C72" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010100</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
+      <c r="F72" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>104</v>
+      </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="13"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J72" s="45">
+        <v>2005</v>
+      </c>
+      <c r="K72" s="41">
+        <v>100</v>
+      </c>
+      <c r="L72" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M72" s="42" t="s">
+        <v>1283</v>
+      </c>
+      <c r="N72" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000101</v>
+      </c>
+      <c r="O72" s="44"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="15">
         <v>21</v>
       </c>
@@ -7453,22 +8180,38 @@
         <v>120</v>
       </c>
       <c r="C73" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010101</v>
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
+      <c r="F73" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>105</v>
+      </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="13"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J73" s="45">
+        <v>2006</v>
+      </c>
+      <c r="K73" s="41">
+        <v>100</v>
+      </c>
+      <c r="L73" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M73" s="42" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N73" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000110</v>
+      </c>
+      <c r="O73" s="44"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="15">
         <v>22</v>
       </c>
@@ -7476,22 +8219,38 @@
         <v>121</v>
       </c>
       <c r="C74" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010110</v>
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
+      <c r="F74" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="13"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J74" s="45">
+        <v>2007</v>
+      </c>
+      <c r="K74" s="41">
+        <v>100</v>
+      </c>
+      <c r="L74" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M74" s="42" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N74" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000000111</v>
+      </c>
+      <c r="O74" s="44"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="15">
         <v>23</v>
       </c>
@@ -7499,22 +8258,38 @@
         <v>122</v>
       </c>
       <c r="C75" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010111</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
+      <c r="F75" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="13"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J75" s="45">
+        <v>2008</v>
+      </c>
+      <c r="K75" s="41">
+        <v>100</v>
+      </c>
+      <c r="L75" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M75" s="42" t="s">
+        <v>1286</v>
+      </c>
+      <c r="N75" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000001000</v>
+      </c>
+      <c r="O75" s="44"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="15">
         <v>24</v>
       </c>
@@ -7522,22 +8297,38 @@
         <v>123</v>
       </c>
       <c r="C76" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011000</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="F76" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>108</v>
+      </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="13"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J76" s="45">
+        <v>2009</v>
+      </c>
+      <c r="K76" s="41">
+        <v>100</v>
+      </c>
+      <c r="L76" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M76" s="42" t="s">
+        <v>1287</v>
+      </c>
+      <c r="N76" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000001001</v>
+      </c>
+      <c r="O76" s="44"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="15">
         <v>25</v>
       </c>
@@ -7545,22 +8336,38 @@
         <v>124</v>
       </c>
       <c r="C77" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011001</v>
       </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="F77" s="36" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="13"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="J77" s="45" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K77" s="41">
+        <v>100</v>
+      </c>
+      <c r="L77" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M77" s="42" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N77" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000001010</v>
+      </c>
+      <c r="O77" s="44"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="15">
         <v>26</v>
       </c>
@@ -7568,22 +8375,38 @@
         <v>125</v>
       </c>
       <c r="C78" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011010</v>
       </c>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="13"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="F78" s="37" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G78" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="46" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K78" s="41">
+        <v>100</v>
+      </c>
+      <c r="L78" s="41" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M78" s="42" t="s">
+        <v>1289</v>
+      </c>
+      <c r="N78" s="43" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000001011</v>
+      </c>
+      <c r="O78" s="44"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="15">
         <v>27</v>
       </c>
@@ -7591,7 +8414,7 @@
         <v>126</v>
       </c>
       <c r="C79" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011011</v>
       </c>
       <c r="D79" s="12"/>
@@ -7605,8 +8428,9 @@
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
       <c r="N79" s="13"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O79" s="12"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="15">
         <v>28</v>
       </c>
@@ -7614,7 +8438,7 @@
         <v>127</v>
       </c>
       <c r="C80" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011100</v>
       </c>
       <c r="D80" s="12"/>
@@ -7628,8 +8452,9 @@
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
       <c r="N80" s="13"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O80" s="12"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="15">
         <v>29</v>
       </c>
@@ -7637,7 +8462,7 @@
         <v>128</v>
       </c>
       <c r="C81" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011101</v>
       </c>
       <c r="D81" s="12"/>
@@ -7651,8 +8476,9 @@
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
       <c r="N81" s="13"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O81" s="12"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="15">
         <v>30</v>
       </c>
@@ -7660,7 +8486,7 @@
         <v>129</v>
       </c>
       <c r="C82" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011110</v>
       </c>
       <c r="D82" s="12"/>
@@ -7674,8 +8500,9 @@
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
       <c r="N82" s="13"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="15">
         <v>31</v>
       </c>
@@ -7683,7 +8510,7 @@
         <v>130</v>
       </c>
       <c r="C83" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011111</v>
       </c>
       <c r="D83" s="12"/>
@@ -7697,8 +8524,9 @@
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
       <c r="N83" s="13"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O83" s="12"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="15">
         <v>32</v>
       </c>
@@ -7706,7 +8534,7 @@
         <v>131</v>
       </c>
       <c r="C84" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="D84" s="12"/>
@@ -7720,8 +8548,9 @@
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
       <c r="N84" s="13"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O84" s="12"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="15">
         <v>33</v>
       </c>
@@ -7729,7 +8558,7 @@
         <v>132</v>
       </c>
       <c r="C85" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100001</v>
       </c>
       <c r="D85" s="12"/>
@@ -7743,8 +8572,9 @@
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
       <c r="N85" s="13"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O85" s="12"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="15">
         <v>34</v>
       </c>
@@ -7752,7 +8582,7 @@
         <v>133</v>
       </c>
       <c r="C86" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100010</v>
       </c>
       <c r="D86" s="12"/>
@@ -7766,8 +8596,9 @@
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
       <c r="N86" s="13"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O86" s="12"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="15">
         <v>35</v>
       </c>
@@ -7775,7 +8606,7 @@
         <v>134</v>
       </c>
       <c r="C87" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100011</v>
       </c>
       <c r="D87" s="12"/>
@@ -7789,8 +8620,9 @@
       <c r="L87" s="12"/>
       <c r="M87" s="12"/>
       <c r="N87" s="13"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O87" s="12"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="15">
         <v>36</v>
       </c>
@@ -7798,7 +8630,7 @@
         <v>135</v>
       </c>
       <c r="C88" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100100</v>
       </c>
       <c r="D88" s="12"/>
@@ -7812,8 +8644,9 @@
       <c r="L88" s="12"/>
       <c r="M88" s="12"/>
       <c r="N88" s="13"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O88" s="12"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="15">
         <v>37</v>
       </c>
@@ -7821,7 +8654,7 @@
         <v>136</v>
       </c>
       <c r="C89" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100101</v>
       </c>
       <c r="D89" s="12"/>
@@ -7835,8 +8668,9 @@
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="13"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O89" s="12"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="15">
         <v>38</v>
       </c>
@@ -7844,7 +8678,7 @@
         <v>137</v>
       </c>
       <c r="C90" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100110</v>
       </c>
       <c r="D90" s="12"/>
@@ -7858,8 +8692,9 @@
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
       <c r="N90" s="13"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O90" s="12"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="15">
         <v>39</v>
       </c>
@@ -7867,7 +8702,7 @@
         <v>138</v>
       </c>
       <c r="C91" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100111</v>
       </c>
       <c r="D91" s="12"/>
@@ -7881,8 +8716,9 @@
       <c r="L91" s="12"/>
       <c r="M91" s="12"/>
       <c r="N91" s="13"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O91" s="12"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="15">
         <v>40</v>
       </c>
@@ -7890,7 +8726,7 @@
         <v>139</v>
       </c>
       <c r="C92" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101000</v>
       </c>
       <c r="D92" s="12"/>
@@ -7904,8 +8740,9 @@
       <c r="L92" s="12"/>
       <c r="M92" s="12"/>
       <c r="N92" s="13"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O92" s="12"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="15">
         <v>41</v>
       </c>
@@ -7913,7 +8750,7 @@
         <v>140</v>
       </c>
       <c r="C93" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101001</v>
       </c>
       <c r="D93" s="12"/>
@@ -7927,8 +8764,9 @@
       <c r="L93" s="12"/>
       <c r="M93" s="12"/>
       <c r="N93" s="13"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O93" s="12"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="15">
         <v>42</v>
       </c>
@@ -7936,7 +8774,7 @@
         <v>141</v>
       </c>
       <c r="C94" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101010</v>
       </c>
       <c r="D94" s="12"/>
@@ -7950,8 +8788,9 @@
       <c r="L94" s="12"/>
       <c r="M94" s="12"/>
       <c r="N94" s="13"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O94" s="12"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="15">
         <v>43</v>
       </c>
@@ -7959,7 +8798,7 @@
         <v>44</v>
       </c>
       <c r="C95" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101011</v>
       </c>
       <c r="D95" s="12"/>
@@ -7973,8 +8812,9 @@
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
       <c r="N95" s="13"/>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O95" s="12"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="15">
         <v>44</v>
       </c>
@@ -7982,7 +8822,7 @@
         <v>44</v>
       </c>
       <c r="C96" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101100</v>
       </c>
       <c r="D96" s="12"/>
@@ -7996,8 +8836,9 @@
       <c r="L96" s="12"/>
       <c r="M96" s="12"/>
       <c r="N96" s="13"/>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O96" s="12"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="15">
         <v>45</v>
       </c>
@@ -8005,7 +8846,7 @@
         <v>44</v>
       </c>
       <c r="C97" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101101</v>
       </c>
       <c r="D97" s="12"/>
@@ -8019,8 +8860,9 @@
       <c r="L97" s="12"/>
       <c r="M97" s="12"/>
       <c r="N97" s="13"/>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O97" s="12"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="15">
         <v>46</v>
       </c>
@@ -8028,7 +8870,7 @@
         <v>44</v>
       </c>
       <c r="C98" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101110</v>
       </c>
       <c r="D98" s="12"/>
@@ -8042,8 +8884,9 @@
       <c r="L98" s="12"/>
       <c r="M98" s="12"/>
       <c r="N98" s="13"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O98" s="12"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="15">
         <v>47</v>
       </c>
@@ -8051,7 +8894,7 @@
         <v>44</v>
       </c>
       <c r="C99" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>101111</v>
       </c>
       <c r="D99" s="12"/>
@@ -8065,8 +8908,9 @@
       <c r="L99" s="12"/>
       <c r="M99" s="12"/>
       <c r="N99" s="13"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O99" s="12"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="15">
         <v>48</v>
       </c>
@@ -8074,7 +8918,7 @@
         <v>44</v>
       </c>
       <c r="C100" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110000</v>
       </c>
       <c r="D100" s="12"/>
@@ -8088,8 +8932,9 @@
       <c r="L100" s="12"/>
       <c r="M100" s="12"/>
       <c r="N100" s="13"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O100" s="12"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="15">
         <v>49</v>
       </c>
@@ -8097,7 +8942,7 @@
         <v>44</v>
       </c>
       <c r="C101" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110001</v>
       </c>
       <c r="D101" s="12"/>
@@ -8111,8 +8956,9 @@
       <c r="L101" s="12"/>
       <c r="M101" s="12"/>
       <c r="N101" s="13"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O101" s="12"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="15">
         <v>50</v>
       </c>
@@ -8120,7 +8966,7 @@
         <v>44</v>
       </c>
       <c r="C102" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110010</v>
       </c>
       <c r="D102" s="12"/>
@@ -8134,8 +8980,9 @@
       <c r="L102" s="12"/>
       <c r="M102" s="12"/>
       <c r="N102" s="13"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O102" s="12"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="15">
         <v>51</v>
       </c>
@@ -8143,7 +8990,7 @@
         <v>44</v>
       </c>
       <c r="C103" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110011</v>
       </c>
       <c r="D103" s="12"/>
@@ -8157,8 +9004,9 @@
       <c r="L103" s="12"/>
       <c r="M103" s="12"/>
       <c r="N103" s="13"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O103" s="12"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="15">
         <v>52</v>
       </c>
@@ -8166,7 +9014,7 @@
         <v>44</v>
       </c>
       <c r="C104" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110100</v>
       </c>
       <c r="D104" s="12"/>
@@ -8180,8 +9028,9 @@
       <c r="L104" s="12"/>
       <c r="M104" s="12"/>
       <c r="N104" s="13"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O104" s="12"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="15">
         <v>53</v>
       </c>
@@ -8189,7 +9038,7 @@
         <v>44</v>
       </c>
       <c r="C105" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110101</v>
       </c>
       <c r="D105" s="12"/>
@@ -8203,8 +9052,9 @@
       <c r="L105" s="12"/>
       <c r="M105" s="12"/>
       <c r="N105" s="13"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O105" s="12"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="15">
         <v>54</v>
       </c>
@@ -8212,7 +9062,7 @@
         <v>44</v>
       </c>
       <c r="C106" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110110</v>
       </c>
       <c r="D106" s="12"/>
@@ -8226,8 +9076,9 @@
       <c r="L106" s="12"/>
       <c r="M106" s="12"/>
       <c r="N106" s="13"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O106" s="12"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="15">
         <v>55</v>
       </c>
@@ -8235,7 +9086,7 @@
         <v>44</v>
       </c>
       <c r="C107" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110111</v>
       </c>
       <c r="D107" s="12"/>
@@ -8249,8 +9100,9 @@
       <c r="L107" s="12"/>
       <c r="M107" s="12"/>
       <c r="N107" s="13"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O107" s="12"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="15">
         <v>56</v>
       </c>
@@ -8258,7 +9110,7 @@
         <v>44</v>
       </c>
       <c r="C108" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111000</v>
       </c>
       <c r="D108" s="12"/>
@@ -8272,8 +9124,9 @@
       <c r="L108" s="12"/>
       <c r="M108" s="12"/>
       <c r="N108" s="13"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O108" s="12"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="15">
         <v>57</v>
       </c>
@@ -8281,7 +9134,7 @@
         <v>44</v>
       </c>
       <c r="C109" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111001</v>
       </c>
       <c r="D109" s="12"/>
@@ -8295,8 +9148,9 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="13"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O109" s="12"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="15">
         <v>58</v>
       </c>
@@ -8304,7 +9158,7 @@
         <v>44</v>
       </c>
       <c r="C110" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111010</v>
       </c>
       <c r="D110" s="12"/>
@@ -8318,8 +9172,9 @@
       <c r="L110" s="12"/>
       <c r="M110" s="12"/>
       <c r="N110" s="13"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O110" s="12"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="15">
         <v>59</v>
       </c>
@@ -8327,7 +9182,7 @@
         <v>44</v>
       </c>
       <c r="C111" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111011</v>
       </c>
       <c r="D111" s="12"/>
@@ -8341,8 +9196,9 @@
       <c r="L111" s="12"/>
       <c r="M111" s="12"/>
       <c r="N111" s="13"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O111" s="12"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="15">
         <v>60</v>
       </c>
@@ -8350,7 +9206,7 @@
         <v>44</v>
       </c>
       <c r="C112" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111100</v>
       </c>
       <c r="D112" s="12"/>
@@ -8364,8 +9220,9 @@
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
       <c r="N112" s="13"/>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O112" s="12"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="15">
         <v>61</v>
       </c>
@@ -8373,7 +9230,7 @@
         <v>44</v>
       </c>
       <c r="C113" s="12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111101</v>
       </c>
       <c r="D113" s="12"/>
@@ -8387,8 +9244,9 @@
       <c r="L113" s="12"/>
       <c r="M113" s="12"/>
       <c r="N113" s="13"/>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O113" s="12"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="15"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -8403,8 +9261,9 @@
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
       <c r="N114" s="13"/>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O114" s="12"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="15"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -8419,8 +9278,9 @@
       <c r="L115" s="12"/>
       <c r="M115" s="12"/>
       <c r="N115" s="13"/>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O115" s="12"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="15"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -8435,8 +9295,9 @@
       <c r="L116" s="12"/>
       <c r="M116" s="12"/>
       <c r="N116" s="13"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O116" s="12"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="15"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -8451,8 +9312,9 @@
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
       <c r="N117" s="13"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O117" s="12"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="15"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -8467,8 +9329,9 @@
       <c r="L118" s="12"/>
       <c r="M118" s="12"/>
       <c r="N118" s="13"/>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O118" s="12"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="15"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -8483,8 +9346,9 @@
       <c r="L119" s="12"/>
       <c r="M119" s="12"/>
       <c r="N119" s="13"/>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O119" s="12"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="15"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -8499,8 +9363,9 @@
       <c r="L120" s="12"/>
       <c r="M120" s="12"/>
       <c r="N120" s="13"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O120" s="12"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="15"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -8515,8 +9380,9 @@
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
       <c r="N121" s="13"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O121" s="12"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="15"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -8531,8 +9397,9 @@
       <c r="L122" s="12"/>
       <c r="M122" s="12"/>
       <c r="N122" s="13"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O122" s="12"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="15"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -8547,8 +9414,9 @@
       <c r="L123" s="12"/>
       <c r="M123" s="12"/>
       <c r="N123" s="13"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O123" s="12"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="15"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -8563,8 +9431,9 @@
       <c r="L124" s="12"/>
       <c r="M124" s="12"/>
       <c r="N124" s="13"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O124" s="12"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="15"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -8579,8 +9448,9 @@
       <c r="L125" s="12"/>
       <c r="M125" s="12"/>
       <c r="N125" s="13"/>
-    </row>
-    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="O125" s="12"/>
+    </row>
+    <row r="126" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="17"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -8595,6 +9465,7 @@
       <c r="L126" s="18"/>
       <c r="M126" s="18"/>
       <c r="N126" s="19"/>
+      <c r="O126" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
